--- a/Operational Statistics/Hyperparameter Configurations.xlsx
+++ b/Operational Statistics/Hyperparameter Configurations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francesco.lazzara\Desktop\Master's Thesis\Operational Statistics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescolazzara/Desktop/Master Thesis - Golder PC/Word Embedding Evaluation - Papers/Github/Operational Statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA5E8B8-173B-496A-B9FE-A4D7FCA8A141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79F7CD3-5B1C-C045-92C9-5F3B2A4C571E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>Experiment</t>
   </si>
   <si>
-    <t>Hyperparamter Configuration</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>window=15</t>
+  </si>
+  <si>
+    <t>Hyperparameter Configuration</t>
   </si>
 </sst>
 </file>
@@ -232,36 +232,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,144 +542,147 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="5" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
